--- a/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير بيتى جوافة - 235 مل</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر 12+1 هدية - 145 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 5 - 52 حفاضة</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
-  </si>
-  <si>
-    <t>اولويز الترا سليم بلمسة الاوليفيرا  طويل جدا عرض 12+2 مجانا- 14 فوطة</t>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>بلوبيف الذهبية - 340 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>145</v>
+        <v>5490</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,15 +441,15 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10609</v>
+        <v>8927</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -470,95 +458,27 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>188.75</v>
+        <v>888</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10720</v>
+        <v>8927</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>882.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>10720</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>294.25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>10897</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>161.25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>21077</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>729</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>21077</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>60.75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
@@ -37,10 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شويبس ليمون نعناع جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>بلوبيف الذهبية - 340 جم</t>
+    <t>جل باهى لافندر - 40 جم</t>
+  </si>
+  <si>
+    <t>تورتا رولز كيك كـاكاو ملفوف محشو بكريمة الفانيايا و مغطي بالشوكولاتة - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -432,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5490</v>
+        <v>12373</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>269</v>
+        <v>55.5</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -449,16 +449,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8927</v>
+        <v>24712</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>888</v>
+        <v>49.25</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -466,16 +466,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8927</v>
+        <v>24712</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>886.5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>

--- a/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,55 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>جل باهى لافندر - 40 جم</t>
-  </si>
-  <si>
-    <t>تورتا رولز كيك كـاكاو ملفوف محشو بكريمة الفانيايا و مغطي بالشوكولاتة - 5 جنية</t>
+    <t>عصير جهينة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة اناناس - 1 لتر</t>
+  </si>
+  <si>
+    <t>عدس بجبة الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>حمص الشام الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>عصير بست كوكتيل كيس - 190 مل</t>
+  </si>
+  <si>
+    <t>عسل البوادى اسود - 190 جم</t>
+  </si>
+  <si>
+    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة - 5 جنية</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>بقسماط الضحى ناعم - 300 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح كمثرى - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة مكس بيرى - 1 لتر</t>
+  </si>
+  <si>
+    <t>مولتو ماجنم فراولة - 15 جنية</t>
+  </si>
+  <si>
+    <t>فيانسيه شامبو 7فى1 اكياس بالليمون والألوفيرا 5 مل</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,53 +474,359 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12373</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>55.5</v>
+        <v>191.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24712</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>49.25</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24712</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>886.5</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>524</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>360.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1066</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1066</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1040</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1067</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>85.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1067</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1715</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1776</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>270</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>360</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>97.75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>6497</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>802</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>6957</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>380</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>6957</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>11643</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>348.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>11644</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>358</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11855</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>295.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21809</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>304</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,55 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة كوكتيل - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة كوكتيل - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة اناناس - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة اناناس - 1 لتر</t>
-  </si>
-  <si>
-    <t>عدس بجبة الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>حمص الشام الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>عصير بست كوكتيل كيس - 190 مل</t>
-  </si>
-  <si>
-    <t>عسل البوادى اسود - 190 جم</t>
-  </si>
-  <si>
-    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة - 5 جنية</t>
-  </si>
-  <si>
-    <t>سندة زيت خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>بقسماط الضحى ناعم - 300 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة تفاح كمثرى - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة مكس بيرى - 1 لتر</t>
-  </si>
-  <si>
-    <t>مولتو ماجنم فراولة - 15 جنية</t>
-  </si>
-  <si>
-    <t>فيانسيه شامبو 7فى1 اكياس بالليمون والألوفيرا 5 مل</t>
+    <t>فريك الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>صابون جوى عرض خاص  - 165 جم</t>
+  </si>
+  <si>
+    <t>ريحانة برغل- 500 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -443,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>142</v>
+        <v>1070</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -483,350 +444,95 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>191.5</v>
+        <v>1035</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>415</v>
+        <v>1070</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>352</v>
+        <v>51.75</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>418</v>
+        <v>2188</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>214</v>
+        <v>429</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>524</v>
+        <v>2188</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>35.75</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>360.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1066</v>
+        <v>2270</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>855</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1066</v>
+        <v>2270</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>1040</v>
+        <v>42.75</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1067</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>85.75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1067</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1715</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>1776</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>270</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>2103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
         <v>10</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>2103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>180</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>360</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>3104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>97.75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>6497</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>802</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>6957</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>380</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>6957</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>11643</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>348.25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>11644</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>358</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>11855</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>295.5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21809</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>304</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فريك الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>صابون جوى عرض خاص  - 165 جم</t>
-  </si>
-  <si>
-    <t>ريحانة برغل- 500 جم</t>
+    <t>مربى الرشيدى الميزان فراولة - 700 جم</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك لافندر 8 ك + 1 ك - 9 كجم</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +447,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -444,95 +456,180 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1035</v>
+        <v>538.75</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1070</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>51.75</v>
+        <v>28.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2188</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>429</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2188</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>35.75</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2270</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>855</v>
+        <v>1356</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2270</v>
+        <v>4327</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>42.75</v>
+        <v>912</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11403</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11526</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>19.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11526</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21687</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>26.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21687</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
-  </si>
-  <si>
-    <t>مناديل سمايل سحب 550 منديل</t>
+    <t>فريك الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس ماكسى مقاس 4 - 80 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
+  </si>
+  <si>
+    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
+  </si>
+  <si>
+    <t>الرشيدي الميزان حلاوة طحينية- 760 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +444,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6158</v>
+        <v>1070</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>112.5</v>
+        <v>51.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>12212</v>
+        <v>1070</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1030</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1706</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>402.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1706</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>804.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>9910</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>29</v>
       </c>
-      <c r="D3">
-        <v>257.5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D6">
+        <v>798.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>9910</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>399.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11793</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>296.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>23599</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>854</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>23599</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>106.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>23994</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>380.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>23994</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>760.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/output_700_chunk_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فريك الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس ماكسى مقاس 4 - 80 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
-  </si>
-  <si>
-    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
-  </si>
-  <si>
-    <t>الرشيدي الميزان حلاوة طحينية- 760 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
+    <t>مناديل فاميليا تواليت مضغوط 10 رول + 2 رول هدية - 12 رول</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1070</v>
+        <v>13252</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>51.5</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1070</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1030</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1706</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>402.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1706</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>804.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>9910</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>798.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>9910</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>399.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>11793</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>296.25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>23599</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>854</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>23599</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>106.75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23994</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>380.25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23994</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>760.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
